--- a/module/ue/ue_ID表生成/Audio_Desc.xlsx
+++ b/module/ue/ue_ID表生成/Audio_Desc.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H599"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16609,6 +16609,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>13002</v>
+      </c>
+      <c r="B600" t="n">
+        <v>13002</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>AKE_Stop_Mus_Global</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mus/AKE_Stop_Mus_Global.AKE_Stop_Mus_Global'</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/module/ue/ue_ID表生成/Audio_Desc.xlsx
+++ b/module/ue/ue_ID表生成/Audio_Desc.xlsx
@@ -1016,10 +1016,10 @@
   </sheetPr>
   <dimension ref="A1:H600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="F589" sqref="F589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16606,7 +16606,7 @@
       </c>
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
